--- a/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>36939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27672</v>
+        <v>26489</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50549</v>
+        <v>50065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05330286459266946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03993072894075966</v>
+        <v>0.03822328483066253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07294306731434363</v>
+        <v>0.07224406715624376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -765,19 +765,19 @@
         <v>28003</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19684</v>
+        <v>19316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39951</v>
+        <v>40495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04068196610643885</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02859584337979967</v>
+        <v>0.02806190175920491</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0580392554241577</v>
+        <v>0.05882828504851816</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -786,19 +786,19 @@
         <v>64942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50569</v>
+        <v>50937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82375</v>
+        <v>81004</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04701362580593978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03660872385065599</v>
+        <v>0.03687459212663904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05963364199597679</v>
+        <v>0.05864137763184248</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>656055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>642445</v>
+        <v>642929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665322</v>
+        <v>666505</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9466971354073306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9270569326856566</v>
+        <v>0.9277559328437567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9600692710592403</v>
+        <v>0.9617767151693375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>668</v>
@@ -836,19 +836,19 @@
         <v>660348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>648400</v>
+        <v>647856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>668667</v>
+        <v>669035</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9593180338935612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9419607445758422</v>
+        <v>0.9411717149514818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9714041566202001</v>
+        <v>0.9719380982407951</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1312</v>
@@ -857,19 +857,19 @@
         <v>1316403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1298970</v>
+        <v>1300341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1330776</v>
+        <v>1330408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9529863741940602</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9403663580040229</v>
+        <v>0.9413586223681574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9633912761493438</v>
+        <v>0.9631254078733609</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>75142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59307</v>
+        <v>58859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92694</v>
+        <v>93688</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07812665108570381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06166263861753462</v>
+        <v>0.06119656766240334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0963758382308659</v>
+        <v>0.09740871244294218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -982,19 +982,19 @@
         <v>58384</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44897</v>
+        <v>43829</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76110</v>
+        <v>74414</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06028929539586395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04636268995592743</v>
+        <v>0.04526001653086368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07859439948383294</v>
+        <v>0.07684235907355731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -1003,19 +1003,19 @@
         <v>133526</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112812</v>
+        <v>111302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159325</v>
+        <v>156840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06917750928579448</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05844613153471766</v>
+        <v>0.05766365330693685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08254334419822837</v>
+        <v>0.08125615521106293</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>886658</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>869106</v>
+        <v>868112</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>902493</v>
+        <v>902941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9218733489142962</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9036241617691341</v>
+        <v>0.9025912875570582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9383373613824654</v>
+        <v>0.9388034323375967</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -1053,19 +1053,19 @@
         <v>910009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>892283</v>
+        <v>893979</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>923496</v>
+        <v>924564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9397107046041361</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9214056005161669</v>
+        <v>0.9231576409264427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9536373100440726</v>
+        <v>0.9547399834691362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1682</v>
@@ -1074,19 +1074,19 @@
         <v>1796667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1770868</v>
+        <v>1773353</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1817381</v>
+        <v>1818891</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9308224907142055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9174566558017716</v>
+        <v>0.9187438447889369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9415538684652823</v>
+        <v>0.9423363466930632</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>47500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34805</v>
+        <v>34278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62131</v>
+        <v>61770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07000683664743944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05129605645886496</v>
+        <v>0.05051965210468203</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09157010265625774</v>
+        <v>0.09103814790434187</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>44573</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32147</v>
+        <v>33852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58150</v>
+        <v>58201</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06517971091231931</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04700888906358895</v>
+        <v>0.04950273115535567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08503378869294208</v>
+        <v>0.08510852034321445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1220,19 +1220,19 @@
         <v>92073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76906</v>
+        <v>74616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112866</v>
+        <v>112456</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06758382730124524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05645128013513594</v>
+        <v>0.05476984244841982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08284629510370849</v>
+        <v>0.08254550796273157</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>631009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616378</v>
+        <v>616739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>643704</v>
+        <v>644231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9299931633525605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.908429897343742</v>
+        <v>0.9089618520956577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9487039435411343</v>
+        <v>0.9494803478953179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>651</v>
@@ -1270,19 +1270,19 @@
         <v>639268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>625691</v>
+        <v>625640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651694</v>
+        <v>649989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9348202890876807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9149662113070578</v>
+        <v>0.9148914796567854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9529911109364111</v>
+        <v>0.9504972688446442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1247</v>
@@ -1291,19 +1291,19 @@
         <v>1270277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1249484</v>
+        <v>1249894</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1285444</v>
+        <v>1287734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9324161726987548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9171537048962914</v>
+        <v>0.9174544920372689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9435487198648638</v>
+        <v>0.9452301575515809</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>67138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53260</v>
+        <v>53833</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83674</v>
+        <v>84435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07125549799365019</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05652581861931703</v>
+        <v>0.0571337175038386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0888046274307337</v>
+        <v>0.0896123196955136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1416,19 +1416,19 @@
         <v>86124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68632</v>
+        <v>70288</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105349</v>
+        <v>106174</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08292259561193677</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06608097132297598</v>
+        <v>0.06767508071530917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1014323075473805</v>
+        <v>0.1022266442369212</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>156</v>
@@ -1437,19 +1437,19 @@
         <v>153263</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130673</v>
+        <v>128697</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>177269</v>
+        <v>177160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07737291470705225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0659684560503708</v>
+        <v>0.06497101685011394</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08949204104191442</v>
+        <v>0.08943726660622237</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>875084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>858548</v>
+        <v>857787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>888962</v>
+        <v>888389</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9287445020063498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9111953725692664</v>
+        <v>0.910387680304486</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9434741813806831</v>
+        <v>0.9428662824961612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>914</v>
@@ -1487,19 +1487,19 @@
         <v>952488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>933263</v>
+        <v>932438</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>969980</v>
+        <v>968324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9170774043880633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8985676924526195</v>
+        <v>0.8977733557630788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9339190286770238</v>
+        <v>0.932324919284691</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1835</v>
@@ -1508,19 +1508,19 @@
         <v>1827571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1803565</v>
+        <v>1803674</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1850161</v>
+        <v>1852137</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9226270852929478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9105079589580856</v>
+        <v>0.9105627333937776</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9340315439496292</v>
+        <v>0.935028983149886</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>226720</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06921624668597008</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>207</v>
@@ -1633,19 +1633,19 @@
         <v>217084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06424134627277592</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>434</v>
@@ -1654,19 +1654,19 @@
         <v>443804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06669004515213445</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3048805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3018298</v>
+        <v>3020497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3076545</v>
+        <v>3075576</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.93078375331403</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9214698530830682</v>
+        <v>0.9221412290124297</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9392525700374147</v>
+        <v>0.9389567576420765</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3090</v>
@@ -1704,19 +1704,19 @@
         <v>3162113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3130748</v>
+        <v>3133755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3189235</v>
+        <v>3190128</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9357586537272241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9264769783702799</v>
+        <v>0.9273666588763551</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9437849488559492</v>
+        <v>0.9440492064422503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6076</v>
@@ -1725,19 +1725,19 @@
         <v>6210918</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6167911</v>
+        <v>6165606</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6250209</v>
+        <v>6247408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9333099548478655</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9268473248010535</v>
+        <v>0.9265009349034311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9392141201451247</v>
+        <v>0.9387932686848125</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>69851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55054</v>
+        <v>54312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88686</v>
+        <v>87891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09967865355033273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07856233516342587</v>
+        <v>0.07750448445070121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1265560072002899</v>
+        <v>0.1254220820014618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -2090,19 +2090,19 @@
         <v>59199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44779</v>
+        <v>45473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75154</v>
+        <v>76582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08538165226656952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06458290132125048</v>
+        <v>0.06558501087942142</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1083923272663005</v>
+        <v>0.1104525994990779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -2111,19 +2111,19 @@
         <v>129051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107426</v>
+        <v>107412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152518</v>
+        <v>151759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09256816247418623</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07705658845195</v>
+        <v>0.07704652196424303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1094016633212851</v>
+        <v>0.1088571175769498</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>630913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>612078</v>
+        <v>612873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>645710</v>
+        <v>646452</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9003213464496672</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.87344399279971</v>
+        <v>0.8745779179985382</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9214376648365742</v>
+        <v>0.9224955155492988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>591</v>
@@ -2161,19 +2161,19 @@
         <v>634152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>618197</v>
+        <v>616769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>648572</v>
+        <v>647878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9146183477334305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8916076727336995</v>
+        <v>0.8895474005009224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9354170986787496</v>
+        <v>0.9344149891205786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1196</v>
@@ -2182,19 +2182,19 @@
         <v>1265064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1241597</v>
+        <v>1242356</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1286689</v>
+        <v>1286703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9074318375258138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8905983366787149</v>
+        <v>0.8911428824230503</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.92294341154805</v>
+        <v>0.922953478035757</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>74562</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59621</v>
+        <v>58514</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92971</v>
+        <v>94223</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07324773708541275</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05857009309555438</v>
+        <v>0.05748244124930086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09133191215782367</v>
+        <v>0.09256195795193957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -2307,19 +2307,19 @@
         <v>78523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61829</v>
+        <v>62004</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98115</v>
+        <v>97907</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07648430819088846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06022426258527778</v>
+        <v>0.06039471853857749</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09556837595931654</v>
+        <v>0.09536512116167094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -2328,19 +2328,19 @@
         <v>153085</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131522</v>
+        <v>129493</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181419</v>
+        <v>180329</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07487291087256132</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0643265821354661</v>
+        <v>0.06333447219421089</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08873107703053611</v>
+        <v>0.08819794895328364</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>943385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>924976</v>
+        <v>923724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>958326</v>
+        <v>959433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9267522629145872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9086680878421767</v>
+        <v>0.9074380420480606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9414299069044456</v>
+        <v>0.9425175587506993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>863</v>
@@ -2378,19 +2378,19 @@
         <v>948127</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>928535</v>
+        <v>928743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>964821</v>
+        <v>964646</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9235156918091115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9044316240406836</v>
+        <v>0.9046348788383292</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9397757374147222</v>
+        <v>0.9396052814614225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1731</v>
@@ -2399,19 +2399,19 @@
         <v>1891512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1863178</v>
+        <v>1864268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1913075</v>
+        <v>1915104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9251270891274387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9112689229694636</v>
+        <v>0.9118020510467161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9356734178645338</v>
+        <v>0.9366655278057889</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>83089</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65315</v>
+        <v>64979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104216</v>
+        <v>103620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1098275395024727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08633407283470999</v>
+        <v>0.08589043214154556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1377543685034592</v>
+        <v>0.1369656643423185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -2524,19 +2524,19 @@
         <v>60443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45959</v>
+        <v>46328</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76566</v>
+        <v>77054</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07786188823226851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0592036992221921</v>
+        <v>0.05967875142129309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09863184290808202</v>
+        <v>0.09925991172495988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -2545,19 +2545,19 @@
         <v>143532</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120054</v>
+        <v>119927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169593</v>
+        <v>168116</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09363882548606887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07832227517136146</v>
+        <v>0.07823937967141961</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1106411755697041</v>
+        <v>0.1096778216830327</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>673449</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>652322</v>
+        <v>652918</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>691223</v>
+        <v>691559</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8901724604975273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8622456314965394</v>
+        <v>0.8630343356576812</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9136659271652898</v>
+        <v>0.9141095678584541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>646</v>
@@ -2595,19 +2595,19 @@
         <v>715840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>699717</v>
+        <v>699229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>730324</v>
+        <v>729955</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9221381117677315</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9013681570919179</v>
+        <v>0.9007400882750403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9407963007778077</v>
+        <v>0.9403212485787072</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1261</v>
@@ -2616,19 +2616,19 @@
         <v>1389289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1363228</v>
+        <v>1364705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1412767</v>
+        <v>1412894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9063611745139312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.889358824430296</v>
+        <v>0.8903221783169674</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9216777248286389</v>
+        <v>0.9217606203285804</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>95485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78347</v>
+        <v>78681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115902</v>
+        <v>117349</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1011556481494114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08299962690212356</v>
+        <v>0.08335432168878669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1227853711379181</v>
+        <v>0.1243187792126609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -2741,19 +2741,19 @@
         <v>96793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79668</v>
+        <v>78398</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116877</v>
+        <v>117985</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09229279922015013</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07596332484695781</v>
+        <v>0.07475277913930074</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1114424496327958</v>
+        <v>0.1124987400000392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>181</v>
@@ -2762,19 +2762,19 @@
         <v>192278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164825</v>
+        <v>167674</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222305</v>
+        <v>221042</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09649111368250027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08271406537811037</v>
+        <v>0.08414391499336715</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1115593555451378</v>
+        <v>0.1109259080609083</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>848454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>828037</v>
+        <v>826590</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>865592</v>
+        <v>865258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8988443518505886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8772146288620818</v>
+        <v>0.8756812207873391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9170003730978764</v>
+        <v>0.9166456783112134</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>906</v>
@@ -2812,19 +2812,19 @@
         <v>951970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>931886</v>
+        <v>930778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>969095</v>
+        <v>970365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9077072007798499</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8885575503672042</v>
+        <v>0.8875012599999608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9240366751530421</v>
+        <v>0.9252472208606988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1726</v>
@@ -2833,19 +2833,19 @@
         <v>1800425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1770398</v>
+        <v>1771661</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1827878</v>
+        <v>1825029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9035088863174997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8884406444548621</v>
+        <v>0.8890740919390916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9172859346218898</v>
+        <v>0.9158560850066327</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>322987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>288862</v>
+        <v>286982</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>359504</v>
+        <v>360008</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09446306809818086</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08448269044802401</v>
+        <v>0.08393275536988104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1051432020606656</v>
+        <v>0.1052904342882797</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>280</v>
@@ -2958,19 +2958,19 @@
         <v>294958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>263156</v>
+        <v>262828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329917</v>
+        <v>328893</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08320290302103703</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07423189396102153</v>
+        <v>0.07413946967333503</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09306411132640596</v>
+        <v>0.09277523685175509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>574</v>
@@ -2979,19 +2979,19 @@
         <v>617945</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>570660</v>
+        <v>573028</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>674670</v>
+        <v>669626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0887312371927516</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08194149582237116</v>
+        <v>0.08228158885690666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09687644174726529</v>
+        <v>0.09615215937684209</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3096201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3059684</v>
+        <v>3059180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3130326</v>
+        <v>3132206</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9055369319018192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8948567979393344</v>
+        <v>0.8947095657117201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9155173095519754</v>
+        <v>0.9160672446301187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3006</v>
@@ -3029,19 +3029,19 @@
         <v>3250089</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3215130</v>
+        <v>3216154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3281891</v>
+        <v>3282219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9167970969789629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9069358886735939</v>
+        <v>0.9072247631482447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9257681060389784</v>
+        <v>0.925860530326665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5914</v>
@@ -3050,19 +3050,19 @@
         <v>6346290</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6289565</v>
+        <v>6294609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6393575</v>
+        <v>6391207</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9112687628072484</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9031235582527345</v>
+        <v>0.9038478406231587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9180585041776286</v>
+        <v>0.9177184111430934</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>39906</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28252</v>
+        <v>28821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52968</v>
+        <v>53021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0591377847490185</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04186656221793774</v>
+        <v>0.04271084930745561</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0784941229200332</v>
+        <v>0.07857347234617851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -3415,19 +3415,19 @@
         <v>57239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72402</v>
+        <v>71721</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08507081105224674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06524012976515176</v>
+        <v>0.06524372623680696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1076060331120262</v>
+        <v>0.1065946804479575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -3436,19 +3436,19 @@
         <v>97145</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79639</v>
+        <v>80124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120045</v>
+        <v>116478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07208542982276443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05909516579967441</v>
+        <v>0.05945493367468062</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08907819967569301</v>
+        <v>0.08643115426869184</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>634894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>621832</v>
+        <v>621779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>646548</v>
+        <v>645979</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9408622152509815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9215058770799668</v>
+        <v>0.9214265276538215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9581334377820622</v>
+        <v>0.9572891506925443</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>610</v>
@@ -3486,19 +3486,19 @@
         <v>615600</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>600437</v>
+        <v>601118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>628943</v>
+        <v>628940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9149291889477532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8923939668879738</v>
+        <v>0.8934053195520424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9347598702348482</v>
+        <v>0.934756273763193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1223</v>
@@ -3507,19 +3507,19 @@
         <v>1250494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1227594</v>
+        <v>1231161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1268000</v>
+        <v>1267515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9279145701772356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9109218003243069</v>
+        <v>0.9135688457313081</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9409048342003256</v>
+        <v>0.9405450663253195</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>86431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68635</v>
+        <v>69580</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>105294</v>
+        <v>106285</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08453489643714633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06712920050003153</v>
+        <v>0.06805359575412091</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1029843747116062</v>
+        <v>0.1039532934067653</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -3632,19 +3632,19 @@
         <v>86482</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69259</v>
+        <v>69014</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105675</v>
+        <v>106955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.082923757681588</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06640885694033954</v>
+        <v>0.06617467908516486</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1013266086059646</v>
+        <v>0.1025543437017413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -3653,19 +3653,19 @@
         <v>172913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147897</v>
+        <v>146877</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201642</v>
+        <v>200213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08372133823026935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0716090311796721</v>
+        <v>0.07111485602592781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09763095623129399</v>
+        <v>0.09693941993286018</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>936000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>917137</v>
+        <v>916146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953796</v>
+        <v>952851</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9154651035628537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8970156252883937</v>
+        <v>0.8960467065932347</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9328707994999683</v>
+        <v>0.931946404245879</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>898</v>
@@ -3703,19 +3703,19 @@
         <v>956431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>937238</v>
+        <v>935958</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>973654</v>
+        <v>973899</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.917076242318412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8986733913940357</v>
+        <v>0.8974456562982586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.933591143059661</v>
+        <v>0.9338253209148352</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -3724,19 +3724,19 @@
         <v>1892431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1863702</v>
+        <v>1865131</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1917447</v>
+        <v>1918467</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9162786617697306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9023690437687056</v>
+        <v>0.9030605800671401</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9283909688203279</v>
+        <v>0.9288851439740722</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>51737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39606</v>
+        <v>39099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66805</v>
+        <v>66276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06811578670774651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05214327529837817</v>
+        <v>0.0514763064386567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08795317654248208</v>
+        <v>0.08725709989586154</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3849,19 +3849,19 @@
         <v>54949</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41044</v>
+        <v>42766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69960</v>
+        <v>71839</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06999718839857762</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05228454176645519</v>
+        <v>0.05447830733929483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08911920822325457</v>
+        <v>0.09151398546482671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -3870,19 +3870,19 @@
         <v>106686</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86563</v>
+        <v>88624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128197</v>
+        <v>130661</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06907199288006724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05604338824354865</v>
+        <v>0.05737795671322217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0829991306379617</v>
+        <v>0.08459399775900177</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>707815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>692747</v>
+        <v>693276</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>719946</v>
+        <v>720453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9318842132922535</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9120468234575178</v>
+        <v>0.9127429001041383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9478567247016217</v>
+        <v>0.9485236935613433</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -3920,19 +3920,19 @@
         <v>730062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>715051</v>
+        <v>713172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>743967</v>
+        <v>742245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9300028116014224</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9108807917767453</v>
+        <v>0.908486014535173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9477154582335447</v>
+        <v>0.9455216926607052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1334</v>
@@ -3941,19 +3941,19 @@
         <v>1437877</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1416366</v>
+        <v>1413902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1458000</v>
+        <v>1455939</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9309280071199327</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9170008693620383</v>
+        <v>0.9154060022409977</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9439566117564511</v>
+        <v>0.9426220432867778</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>83058</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67072</v>
+        <v>67869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99411</v>
+        <v>102576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08858908170675936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0715382045817357</v>
+        <v>0.07238894015974902</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.106031146527934</v>
+        <v>0.1094069689031339</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -4066,19 +4066,19 @@
         <v>96609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79464</v>
+        <v>78643</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118040</v>
+        <v>116690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09255654801714641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0761310255224593</v>
+        <v>0.07534403731320069</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1130887198046737</v>
+        <v>0.1117959650480903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -4087,19 +4087,19 @@
         <v>179667</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156946</v>
+        <v>155304</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207183</v>
+        <v>209272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09067915484068269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07921162819506228</v>
+        <v>0.07838296649825692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.104567026937378</v>
+        <v>0.1056211984446316</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>854509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>838156</v>
+        <v>834991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>870495</v>
+        <v>869698</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9114109182932406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8939688534720661</v>
+        <v>0.8905930310968661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9284617954182643</v>
+        <v>0.9276110598402511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>869</v>
@@ -4137,19 +4137,19 @@
         <v>947170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>925739</v>
+        <v>927089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>964315</v>
+        <v>965136</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9074434519828536</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8869112801953262</v>
+        <v>0.8882040349519096</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9238689744775407</v>
+        <v>0.9246559626867992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1717</v>
@@ -4158,19 +4158,19 @@
         <v>1801679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1774163</v>
+        <v>1772074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1824400</v>
+        <v>1826042</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9093208451593173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.895432973062622</v>
+        <v>0.8943788015553683</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9207883718049378</v>
+        <v>0.921617033501743</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>261133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>231261</v>
+        <v>230493</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>294887</v>
+        <v>293884</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07693165230526061</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06813111606989163</v>
+        <v>0.0679048757806479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08687590321632312</v>
+        <v>0.08658024393870124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -4283,19 +4283,19 @@
         <v>295278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>264802</v>
+        <v>263890</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>331049</v>
+        <v>332884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08330508377987707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07470695684611359</v>
+        <v>0.07444970132488976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09339693749472888</v>
+        <v>0.09391440770746225</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>525</v>
@@ -4304,19 +4304,19 @@
         <v>556411</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512625</v>
+        <v>514163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>607528</v>
+        <v>604401</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08018734419751215</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07387702151471137</v>
+        <v>0.07409874253600693</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08755408962427647</v>
+        <v>0.08710336339773458</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3133217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3099463</v>
+        <v>3100466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3163089</v>
+        <v>3163857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9230683476947393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.913124096783677</v>
+        <v>0.9134197560612985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9318688839301086</v>
+        <v>0.9320951242193519</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3062</v>
@@ -4354,19 +4354,19 @@
         <v>3249264</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3213493</v>
+        <v>3211658</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3279740</v>
+        <v>3280652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9166949162201229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9066030625052711</v>
+        <v>0.9060855922925379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9252930431538865</v>
+        <v>0.9255502986751104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6044</v>
@@ -4375,19 +4375,19 @@
         <v>6382481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6331364</v>
+        <v>6334491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6426267</v>
+        <v>6424729</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9198126558024878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9124459103757235</v>
+        <v>0.9128966366022654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9261229784852887</v>
+        <v>0.9259012574639931</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>40710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30054</v>
+        <v>29890</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53729</v>
+        <v>56111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05893891853344762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04351202793968501</v>
+        <v>0.0432747938308899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07778815713876683</v>
+        <v>0.08123730370785122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -4740,19 +4740,19 @@
         <v>47102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37836</v>
+        <v>37447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59585</v>
+        <v>58526</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0642781251637902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05163297483700838</v>
+        <v>0.05110212134966233</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08131321311829347</v>
+        <v>0.07986814140601926</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -4761,19 +4761,19 @@
         <v>87812</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72598</v>
+        <v>72631</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106871</v>
+        <v>107010</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06168742405545705</v>
+        <v>0.06168742405545706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05100004471771627</v>
+        <v>0.05102334105260854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07507683937774212</v>
+        <v>0.075174048047307</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>650000</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>636981</v>
+        <v>634599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>660656</v>
+        <v>660820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9410610814665523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9222118428612333</v>
+        <v>0.9187626962921487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9564879720603153</v>
+        <v>0.9567252061691102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1157</v>
@@ -4811,19 +4811,19 @@
         <v>685680</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673197</v>
+        <v>674256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>694946</v>
+        <v>695335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9357218748362098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9186867868817066</v>
+        <v>0.9201318585939807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9483670251629915</v>
+        <v>0.9488978786503376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1841</v>
@@ -4832,19 +4832,19 @@
         <v>1335680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1316621</v>
+        <v>1316482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1350894</v>
+        <v>1350861</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9383125759445428</v>
+        <v>0.938312575944543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9249231606222577</v>
+        <v>0.9248259519526928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9489999552822838</v>
+        <v>0.9489766589473915</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>80082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61056</v>
+        <v>60495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101862</v>
+        <v>103006</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07634691452055412</v>
+        <v>0.07634691452055413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05820814435396347</v>
+        <v>0.05767420408614715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09711158844857502</v>
+        <v>0.09820239585077763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -4957,19 +4957,19 @@
         <v>92017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76074</v>
+        <v>76140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111024</v>
+        <v>112012</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08592968462340805</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07104109612479091</v>
+        <v>0.07110355361523973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1036793307669959</v>
+        <v>0.104602123903672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -4978,19 +4978,19 @@
         <v>172098</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146775</v>
+        <v>147270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203258</v>
+        <v>205372</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08118784841442964</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06924134865050986</v>
+        <v>0.0694750353989895</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09588772546368593</v>
+        <v>0.09688466556357025</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>968835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>947055</v>
+        <v>945911</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>987861</v>
+        <v>988422</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9236530854794459</v>
+        <v>0.9236530854794458</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.902888411551425</v>
+        <v>0.9017976041492223</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9417918556460365</v>
+        <v>0.9423257959138528</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1383</v>
@@ -5028,19 +5028,19 @@
         <v>978821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>959814</v>
+        <v>958826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>994764</v>
+        <v>994698</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.914070315376592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.896320669233004</v>
+        <v>0.8953978760963284</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9289589038752091</v>
+        <v>0.9288964463847604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2279</v>
@@ -5049,19 +5049,19 @@
         <v>1947657</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1916497</v>
+        <v>1914383</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1972980</v>
+        <v>1972485</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9188121515855704</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9041122745363138</v>
+        <v>0.9031153344364297</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9307586513494902</v>
+        <v>0.9305249646010105</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>51171</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36886</v>
+        <v>37205</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68335</v>
+        <v>70485</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06379743325365386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04598819369840077</v>
+        <v>0.04638542916710785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08519682302621154</v>
+        <v>0.08787683545679777</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -5174,19 +5174,19 @@
         <v>50922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39600</v>
+        <v>38842</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67971</v>
+        <v>65265</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0627971546851786</v>
+        <v>0.06279715468517859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04883524530246965</v>
+        <v>0.04790038412314863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0838224259064753</v>
+        <v>0.08048476438591402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -5195,19 +5195,19 @@
         <v>102093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80865</v>
+        <v>82540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124033</v>
+        <v>124762</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06329456166549066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05013361814112323</v>
+        <v>0.05117219400134537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07689686608544744</v>
+        <v>0.07734862870170239</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>750915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>733751</v>
+        <v>731601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>765200</v>
+        <v>764881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9362025667463461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9148031769737883</v>
+        <v>0.9121231645432037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9540118063015985</v>
+        <v>0.9536145708328928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>984</v>
@@ -5245,19 +5245,19 @@
         <v>759975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>742926</v>
+        <v>745632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>771297</v>
+        <v>772055</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9372028453148215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9161775740935248</v>
+        <v>0.9195152356140861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9511647546975307</v>
+        <v>0.9520996158768512</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1612</v>
@@ -5266,19 +5266,19 @@
         <v>1510890</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1488950</v>
+        <v>1488221</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1532118</v>
+        <v>1530443</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9367054383345095</v>
+        <v>0.9367054383345093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9231031339145526</v>
+        <v>0.9226513712982978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.949866381858877</v>
+        <v>0.9488278059986545</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>81707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61132</v>
+        <v>64360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100757</v>
+        <v>104271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08252691442848463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06174549838994386</v>
+        <v>0.06500570817747828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.101768355613116</v>
+        <v>0.1053181006082063</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -5391,19 +5391,19 @@
         <v>98282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82661</v>
+        <v>83513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114546</v>
+        <v>117255</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08798545134306868</v>
+        <v>0.08798545134306866</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07400022681652726</v>
+        <v>0.07476367285773168</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1025448716616374</v>
+        <v>0.1049703884937067</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -5412,19 +5412,19 @@
         <v>179989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156594</v>
+        <v>158633</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207820</v>
+        <v>209595</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08542064217494992</v>
+        <v>0.08542064217494993</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0743177127030924</v>
+        <v>0.07528542575412323</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09862897523867561</v>
+        <v>0.09947122413395117</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>908355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>889305</v>
+        <v>885791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928930</v>
+        <v>925702</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9174730855715153</v>
+        <v>0.9174730855715154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.898231644386884</v>
+        <v>0.8946818993917937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9382545016100562</v>
+        <v>0.9349942918225214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1413</v>
@@ -5462,19 +5462,19 @@
         <v>1018749</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1002485</v>
+        <v>999776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1034370</v>
+        <v>1033518</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9120145486569313</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8974551283383628</v>
+        <v>0.8950296115062935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9259997731834728</v>
+        <v>0.9252363271422684</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2344</v>
@@ -5483,19 +5483,19 @@
         <v>1927104</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1899273</v>
+        <v>1897498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1950499</v>
+        <v>1948460</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9145793578250502</v>
+        <v>0.9145793578250504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9013710247613242</v>
+        <v>0.9005287758660487</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9256822872969077</v>
+        <v>0.9247145742458769</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>253669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>219796</v>
+        <v>220752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>289169</v>
+        <v>291708</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07182481326029244</v>
+        <v>0.07182481326029246</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06223384258907049</v>
+        <v>0.06250445909584949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.081876357131572</v>
+        <v>0.0825952856185993</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>421</v>
@@ -5608,19 +5608,19 @@
         <v>288323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>261237</v>
+        <v>262552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>322962</v>
+        <v>322347</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07726635649936379</v>
+        <v>0.07726635649936381</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07000756374880836</v>
+        <v>0.070359969608863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08654911351759706</v>
+        <v>0.08638419991258757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>657</v>
@@ -5629,19 +5629,19 @@
         <v>541992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>497582</v>
+        <v>500002</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>589520</v>
+        <v>593080</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07462041817764165</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0685061620694369</v>
+        <v>0.06883927116381014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08116399358041072</v>
+        <v>0.08165411558834137</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3278106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3242606</v>
+        <v>3240067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3311979</v>
+        <v>3311023</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9281751867397076</v>
+        <v>0.9281751867397074</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.918123642868428</v>
+        <v>0.9174047143814007</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9377661574109294</v>
+        <v>0.9374955409041504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4937</v>
@@ -5679,19 +5679,19 @@
         <v>3443225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3408586</v>
+        <v>3409201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3470311</v>
+        <v>3468996</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9227336435006362</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.913450886482403</v>
+        <v>0.9136158000874126</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9299924362511915</v>
+        <v>0.929640030391137</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8076</v>
@@ -5700,19 +5700,19 @@
         <v>6721331</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6673803</v>
+        <v>6670243</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6765741</v>
+        <v>6763321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9253795818223582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9188360064195892</v>
+        <v>0.9183458844116587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9314938379305633</v>
+        <v>0.9311607288361898</v>
       </c>
     </row>
     <row r="18">
